--- a/pages.xlsx
+++ b/pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebProjectY2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2757A641-8789-4821-A0A7-E0B1F01967EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844EA153-7AEA-40D2-8338-568080E14FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A687361-3433-487B-B27C-5CA645A35684}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Section</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>see locations of the report,set flags on report: good, bad or medium, approve reports, expand reports to a popup, buy or ignore</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +224,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD2C58-E6C1-456D-9163-866F4DA4A770}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,9 +586,11 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -592,9 +600,9 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -604,9 +612,9 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -616,17 +624,19 @@
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -638,9 +648,9 @@
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -650,9 +660,9 @@
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -662,9 +672,9 @@
       <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -674,17 +684,19 @@
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -696,49 +708,49 @@
       <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages.xlsx
+++ b/pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebProjectY2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844EA153-7AEA-40D2-8338-568080E14FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711D18E3-00A1-4A1E-94C3-98882835431D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A687361-3433-487B-B27C-5CA645A35684}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Section</t>
   </si>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD2C58-E6C1-456D-9163-866F4DA4A770}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,9 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -660,7 +662,9 @@
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
